--- a/nevergiveup/Excel/SceneEnvironment_场景环境表.xlsx
+++ b/nevergiveup/Excel/SceneEnvironment_场景环境表.xlsx
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="179">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1423,111 +1423,111 @@
     <t xml:space="preserve">(R=0.052106,G=0.242233,B=0.944853,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">(R=1.000000,G=0.687345,B=0.305147,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.063010,G=0.246201,B=0.434154,A=1.000000)</t>
+    <t xml:space="preserve">255|226|182|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228|234|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71|136|176|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|0|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|255|255|0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188|188|188|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59|117|198|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109|162|225|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186|208|243|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235|235|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16|63|111|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200|228|250|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100|105|198|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225|184|195|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|204|155|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|227|156|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|197|150|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238|219|219|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35|90|231|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103|156|246|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161|183|243|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185|199|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|255|255|242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.500000,G=0.500000,B=0.500000,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.127438,G=0.141263,B=0.564712,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=0.752942,G=0.479320,B=0.545725,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=0.830770,B=0.679543,A=1.000000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|226|204|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250|248|242|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188|188|188|188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49|81|187|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154|178|243|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228|235|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=1.000000)</t>
   </si>
   <si>
     <t xml:space="preserve">(R=0.000000,G=0.000000,B=0.000000,A=1.000000)</t>
   </si>
   <si>
-    <t xml:space="preserve">255|255|255|0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188|188|188|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|117|198|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109|162|225|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186|208|243|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|226|182|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235|235|255|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16|63|111|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200|228|250|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|105|198|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225|184|195|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|204|155|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|227|156|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|197|150|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238|219|219|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35|90|231|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103|156|246|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161|183|243|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185|199|255|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|255|255|242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.500000,G=0.500000,B=0.500000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.127438,G=0.141263,B=0.564712,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.752942,G=0.479320,B=0.545725,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.830770,B=0.679543,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|226|204|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250|248|242|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188|188|188|188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49|81|187|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154|178|243|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228|235|255|255</t>
-  </si>
-  <si>
     <t xml:space="preserve">(R=0.124772,G=0.088656,B=0.135633,A=1.000000)</t>
   </si>
   <si>
@@ -1556,117 +1556,6 @@
   </si>
   <si>
     <t xml:space="preserve">(R=0.242281,G=0.361307,B=0.571125,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.030713,G=0.082283,B=0.496933,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.066626,G=0.152926,B=0.921582,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.323143,G=0.445201,B=0.896269,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.760525,B=0.467784,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.775822,G=0.822786,B=1.000000,A=0.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.162029,G=0.296138,B=0.434154,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.028426,G=0.031896,B=0.059511,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.104616,G=0.132868,B=0.184475,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.283149,G=0.296138,B=0.381326,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.043945,G=0.178211,B=0.562500,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.838799,B=0.838799,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.806952,G=0.428690,B=0.715693,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.000000,G=0.180000,B=0.540000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.150000,G=0.540000,B=0.700000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.850000,B=0.750000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.850000,B=0.860000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.760784,G=0.800000,B=0.823529,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.605554,G=0.641578,B=0.950000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.016807,G=0.102242,B=0.799103,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.135633,G=0.332452,B=0.921582,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.356400,G=0.473531,B=0.896269,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.477941,G=0.565413,B=1.000000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=0.950000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.000000,G=0.144128,B=0.564712,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.086500,G=0.318547,B=0.752942,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.950000,B=0.710000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.580000,G=0.610000,B=0.960000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.163971,G=0.163971,B=0.163971,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.091177,G=0.091177,B=0.091177,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.346324,G=0.346324,B=0.346324,A=0.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.293850,G=0.407996,B=0.555147,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.603827,B=0.327778,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.768151,B=0.332452,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.550000,B=0.300000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.854993,G=0.708376,B=0.708376,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.658375,G=0.800000,B=0.760525,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.775822,G=0.822786,B=1.000000,A=1.000000)</t>
   </si>
 </sst>
 </file>
@@ -1988,8 +1877,8 @@
   </sheetPr>
   <dimension ref="A1:BN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BL14" activeCellId="0" sqref="BL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2616,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>209510</v>
@@ -2625,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>137.93</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>130</v>
@@ -2657,9 +2546,6 @@
       <c r="P5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>14309</v>
-      </c>
       <c r="R5" s="4" t="n">
         <v>40</v>
       </c>
@@ -2667,7 +2553,7 @@
         <v>134</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>0</v>
@@ -2691,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>1</v>
@@ -2730,10 +2616,10 @@
         <v>0.44</v>
       </c>
       <c r="AT5" s="4" t="n">
-        <v>-361.83</v>
+        <v>1000</v>
       </c>
       <c r="AU5" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AV5" s="4" t="n">
         <v>1</v>
@@ -2748,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BA5" s="4" t="n">
-        <v>5.02</v>
+        <v>-154.79</v>
       </c>
       <c r="BB5" s="4" t="n">
-        <v>-27.81</v>
+        <v>-66.78</v>
       </c>
       <c r="BC5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="BD5" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE5" s="4" t="n">
         <v>1</v>
@@ -2772,7 +2658,7 @@
         <v>1.5</v>
       </c>
       <c r="BH5" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BI5" s="4" t="n">
         <v>0</v>
@@ -2781,10 +2667,10 @@
         <v>1</v>
       </c>
       <c r="BK5" s="4" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="BL5" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,7 +2726,7 @@
         <v>40</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T6" s="4" t="n">
         <v>9</v>
@@ -2870,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD6" s="4" t="n">
         <v>1</v>
@@ -2912,7 +2798,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AV6" s="4" t="n">
         <v>1</v>
@@ -2927,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="BA6" s="4" t="n">
         <v>-159.79</v>
@@ -2939,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="BD6" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE6" s="4" t="n">
         <v>1</v>
@@ -2951,7 +2837,7 @@
         <v>1.62</v>
       </c>
       <c r="BH6" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BI6" s="4" t="n">
         <v>-1.36</v>
@@ -2963,7 +2849,7 @@
         <v>1500</v>
       </c>
       <c r="BL6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,13 +2875,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>3</v>
@@ -3022,7 +2908,7 @@
         <v>20</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>6</v>
@@ -3052,7 +2938,7 @@
         <v>0.5</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD7" s="4" t="n">
         <v>1</v>
@@ -3094,7 +2980,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AV7" s="4" t="n">
         <v>1</v>
@@ -3109,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="BA7" s="4" t="n">
         <v>20</v>
@@ -3121,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="BD7" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE7" s="4" t="n">
         <v>1</v>
@@ -3133,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="BH7" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BI7" s="4" t="n">
         <v>0</v>
@@ -3145,7 +3031,7 @@
         <v>2800</v>
       </c>
       <c r="BL7" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,13 +3057,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>5</v>
@@ -3201,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T8" s="4" t="n">
         <v>10</v>
@@ -3231,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AD8" s="4" t="n">
         <v>1</v>
@@ -3273,7 +3159,7 @@
         <v>9000</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AV8" s="4" t="n">
         <v>1</v>
@@ -3288,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="BA8" s="4" t="n">
         <v>-135</v>
@@ -3300,7 +3186,7 @@
         <v>4</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE8" s="4" t="n">
         <v>0</v>
@@ -3312,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BI8" s="4" t="n">
         <v>0</v>
@@ -3324,7 +3210,7 @@
         <v>2500</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,19 +3230,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>3</v>
@@ -3380,7 +3266,7 @@
         <v>20</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T9" s="4" t="n">
         <v>6</v>
@@ -3410,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD9" s="4" t="n">
         <v>1</v>
@@ -3452,7 +3338,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AV9" s="4" t="n">
         <v>1</v>
@@ -3467,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AZ9" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="BA9" s="4" t="n">
         <v>78.58</v>
@@ -3479,7 +3365,7 @@
         <v>1.17</v>
       </c>
       <c r="BD9" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE9" s="4" t="n">
         <v>1</v>
@@ -3491,7 +3377,7 @@
         <v>1.4</v>
       </c>
       <c r="BH9" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BI9" s="4" t="n">
         <v>-1.24</v>
@@ -3503,7 +3389,7 @@
         <v>2000</v>
       </c>
       <c r="BL9" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,16 +3409,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>142</v>
@@ -3559,7 +3445,7 @@
         <v>40</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T10" s="4" t="n">
         <v>9</v>
@@ -3589,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AD10" s="4" t="n">
         <v>1</v>
@@ -3631,7 +3517,7 @@
         <v>-361.83</v>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AV10" s="4" t="n">
         <v>1</v>
@@ -3646,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="BA10" s="4" t="n">
         <v>-135</v>
@@ -3658,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="BD10" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BE10" s="4" t="n">
         <v>1</v>
@@ -3670,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="BH10" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BI10" s="4" t="n">
         <v>0</v>
@@ -3702,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>169</v>
@@ -3868,2423 +3754,843 @@
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>14304</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v>14307</v>
-      </c>
-      <c r="N12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R12" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T12" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="U12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7" t="n">
-        <v>14302</v>
-      </c>
-      <c r="W12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y12" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="7" t="n">
-        <v>178199</v>
-      </c>
-      <c r="AB12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG12" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH12" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
-      <c r="AP12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AS12" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AT12" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU12" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AX12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="BB12" s="7" t="n">
-        <v>-90</v>
-      </c>
-      <c r="BC12" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="7" t="n">
-        <v>5800</v>
-      </c>
-      <c r="BG12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="5" t="s">
-        <v>177</v>
-      </c>
+      <c r="AU12" s="5"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="5"/>
       <c r="BI12" s="7"/>
-      <c r="BJ12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BL12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM12" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
       <c r="BN12" s="1"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7" t="n">
-        <v>14307</v>
-      </c>
-      <c r="N13" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O13" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T13" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="U13" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y13" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="7" t="n">
-        <v>32677</v>
-      </c>
-      <c r="AB13" s="7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC13" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF13" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG13" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH13" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI13" s="7" t="n">
-        <v>1.114359</v>
-      </c>
-      <c r="AJ13" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="W13" s="7"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
-      <c r="AL13" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
-      <c r="AP13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR13" s="7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AS13" s="7" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT13" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU13" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="7" t="n">
-        <v>1365.849976</v>
-      </c>
-      <c r="AX13" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA13" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB13" s="7" t="n">
-        <v>-31</v>
-      </c>
-      <c r="BC13" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD13" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF13" s="7" t="n">
-        <v>7000</v>
-      </c>
-      <c r="BG13" s="7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BH13" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI13" s="7" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="BJ13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK13" s="7" t="n">
-        <v>2800</v>
-      </c>
-      <c r="BL13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="BM13" s="5" t="s">
-        <v>178</v>
-      </c>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
       <c r="BN13" s="1"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K14" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7" t="n">
-        <v>14307</v>
-      </c>
-      <c r="N14" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O14" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T14" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="U14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7" t="n">
-        <v>14302</v>
-      </c>
-      <c r="W14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y14" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB14" s="7" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF14" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG14" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH14" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
-      <c r="AL14" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
-      <c r="AP14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AU14" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="7" t="n">
-        <v>600</v>
-      </c>
-      <c r="AX14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA14" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB14" s="7" t="n">
-        <v>-40</v>
-      </c>
-      <c r="BC14" s="7" t="n">
-        <v>1.340545</v>
-      </c>
-      <c r="BD14" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="7" t="n">
-        <v>3500</v>
-      </c>
-      <c r="BG14" s="7" t="n">
-        <v>1.463273</v>
-      </c>
-      <c r="BH14" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI14" s="7" t="n">
-        <v>-1.271345</v>
-      </c>
-      <c r="BJ14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK14" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="BL14" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="BM14" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="7"/>
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
     </row>
     <row r="15" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>266280</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K15" s="7" t="n">
-        <v>4.581142</v>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R15" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="U15" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y15" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="7" t="n">
-        <v>31970</v>
-      </c>
-      <c r="AB15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF15" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG15" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH15" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="W15" s="7"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
-      <c r="AL15" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
-      <c r="AP15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AU15" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA15" s="7" t="n">
-        <v>-135</v>
-      </c>
-      <c r="BB15" s="7" t="n">
-        <v>-60</v>
-      </c>
-      <c r="BC15" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD15" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="7" t="n">
-        <v>5800</v>
-      </c>
-      <c r="BG15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH15" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK15" s="7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="BL15" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="BM15" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="7"/>
+      <c r="BF15" s="7"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="7"/>
+      <c r="BK15" s="7"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
     </row>
     <row r="16" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K16" s="7" t="n">
-        <v>4.581142</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R16" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="U16" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y16" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF16" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG16" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH16" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="W16" s="7"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
-      <c r="AL16" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
-      <c r="AP16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU16" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA16" s="7" t="n">
-        <v>-135</v>
-      </c>
-      <c r="BB16" s="7" t="n">
-        <v>-50</v>
-      </c>
-      <c r="BC16" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD16" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="7" t="n">
-        <v>5800</v>
-      </c>
-      <c r="BG16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH16" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="BL16" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="BM16" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="7"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="7"/>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="7"/>
+      <c r="BK16" s="7"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7" t="n">
-        <v>14307</v>
-      </c>
-      <c r="N17" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O17" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R17" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T17" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="U17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7" t="n">
-        <v>14302</v>
-      </c>
-      <c r="W17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y17" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB17" s="7" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF17" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG17" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH17" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
-      <c r="AL17" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
-      <c r="AP17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU17" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA17" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB17" s="7" t="n">
-        <v>-40</v>
-      </c>
-      <c r="BC17" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD17" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF17" s="7" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BG17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH17" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK17" s="7" t="n">
-        <v>2800</v>
-      </c>
-      <c r="BL17" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BM17" s="5" t="s">
-        <v>205</v>
-      </c>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="5"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
     </row>
     <row r="18" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>4.581142</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R18" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T18" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="U18" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y18" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF18" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG18" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH18" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="W18" s="7"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
-      <c r="AL18" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
-      <c r="AP18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU18" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA18" s="7" t="n">
-        <v>-135</v>
-      </c>
-      <c r="BB18" s="7" t="n">
-        <v>-50</v>
-      </c>
-      <c r="BC18" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD18" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="7" t="n">
-        <v>5800</v>
-      </c>
-      <c r="BG18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH18" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK18" s="7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="BL18" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="BM18" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
     </row>
     <row r="19" s="4" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>6.818502</v>
-      </c>
-      <c r="L19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7" t="n">
-        <v>14307</v>
-      </c>
-      <c r="N19" s="7" t="n">
-        <v>0.52871</v>
-      </c>
-      <c r="O19" s="7" t="n">
-        <v>11.305022</v>
-      </c>
-      <c r="P19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T19" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="U19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="7" t="n">
-        <v>95639</v>
-      </c>
-      <c r="W19" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y19" s="7" t="n">
-        <v>65.549843</v>
-      </c>
-      <c r="Z19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB19" s="7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF19" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG19" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH19" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
-      <c r="AL19" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
-      <c r="AP19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU19" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA19" s="7" t="n">
-        <v>-137.717209</v>
-      </c>
-      <c r="BB19" s="7" t="n">
-        <v>-20.664221</v>
-      </c>
-      <c r="BC19" s="7" t="n">
-        <v>7.131848</v>
-      </c>
-      <c r="BD19" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="BE19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF19" s="7" t="n">
-        <v>3017.291504</v>
-      </c>
-      <c r="BG19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH19" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK19" s="7" t="n">
-        <v>1598.976807</v>
-      </c>
-      <c r="BL19" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="BM19" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7"/>
+      <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
     </row>
     <row r="20" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>4.581142</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R20" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T20" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="U20" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y20" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF20" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG20" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH20" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="W20" s="7"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
-      <c r="AL20" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
-      <c r="AP20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU20" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA20" s="7" t="n">
-        <v>85.13694</v>
-      </c>
-      <c r="BB20" s="7" t="n">
-        <v>-21.774366</v>
-      </c>
-      <c r="BC20" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD20" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="7" t="n">
-        <v>5800</v>
-      </c>
-      <c r="BG20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH20" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK20" s="7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="BL20" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="BM20" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="7"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="7"/>
+      <c r="BJ20" s="7"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
     </row>
     <row r="21" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>4.581142</v>
-      </c>
-      <c r="L21" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R21" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T21" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="U21" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
       <c r="V21" s="7"/>
-      <c r="W21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y21" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF21" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG21" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH21" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="W21" s="7"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
-      <c r="AL21" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
-      <c r="AP21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU21" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA21" s="7" t="n">
-        <v>-70.836494</v>
-      </c>
-      <c r="BB21" s="7" t="n">
-        <v>-37.348042</v>
-      </c>
-      <c r="BC21" s="7" t="n">
-        <v>8.518238</v>
-      </c>
-      <c r="BD21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="7" t="n">
-        <v>5800</v>
-      </c>
-      <c r="BG21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK21" s="7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="BL21" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="BM21" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="7"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="7"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="7"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="7"/>
+      <c r="BJ21" s="7"/>
+      <c r="BK21" s="7"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
     </row>
     <row r="22" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>195710</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L22" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R22" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="T22" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="U22" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
       <c r="V22" s="7"/>
-      <c r="W22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y22" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB22" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF22" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG22" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH22" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="W22" s="7"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
-      <c r="AL22" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
-      <c r="AP22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU22" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA22" s="7" t="n">
-        <v>1.631169</v>
-      </c>
-      <c r="BB22" s="7" t="n">
-        <v>-20</v>
-      </c>
-      <c r="BC22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="7" t="n">
-        <v>5800</v>
-      </c>
-      <c r="BG22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK22" s="7" t="n">
-        <v>2800</v>
-      </c>
-      <c r="BL22" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="BM22" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="7"/>
+      <c r="BK22" s="7"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="B23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L23" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R23" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="T23" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="U23" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
       <c r="V23" s="7"/>
-      <c r="W23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y23" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB23" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF23" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG23" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH23" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
-      <c r="AL23" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
-      <c r="AP23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ23" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR23" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AS23" s="7" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AT23" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU23" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AV23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" s="7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AX23" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY23" s="7" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AZ23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA23" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB23" s="7" t="n">
-        <v>-20</v>
-      </c>
-      <c r="BC23" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD23" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF23" s="7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="BG23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH23" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK23" s="7" t="n">
-        <v>2800</v>
-      </c>
-      <c r="BL23" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="BM23" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="7"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="7"/>
+      <c r="BF23" s="7"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="7"/>
+      <c r="BJ23" s="7"/>
+      <c r="BK23" s="7"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
     </row>
     <row r="24" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>14304</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="L24" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="7" t="n">
-        <v>14309</v>
-      </c>
-      <c r="R24" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T24" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="U24" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
       <c r="V24" s="7"/>
-      <c r="W24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y24" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="7" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF24" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG24" s="7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH24" s="7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="W24" s="7"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
-      <c r="AL24" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
-      <c r="AP24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AS24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT24" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AU24" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AV24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA24" s="7" t="n">
-        <v>-135</v>
-      </c>
-      <c r="BB24" s="7" t="n">
-        <v>-50</v>
-      </c>
-      <c r="BC24" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD24" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF24" s="7" t="n">
-        <v>5800</v>
-      </c>
-      <c r="BG24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH24" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK24" s="7" t="n">
-        <v>2800</v>
-      </c>
-      <c r="BL24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM24" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="7"/>
+      <c r="BG24" s="7"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="7"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="7"/>
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
     </row>
     <row r="25" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="7"/>

--- a/nevergiveup/Excel/SceneEnvironment_场景环境表.xlsx
+++ b/nevergiveup/Excel/SceneEnvironment_场景环境表.xlsx
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="150">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1438,133 +1438,45 @@
     <t xml:space="preserve">255|255|255|0</t>
   </si>
   <si>
-    <t xml:space="preserve">188|188|188|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59|117|198|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109|162|225|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186|208|243|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235|235|255|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16|63|111|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200|228|250|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|105|198|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225|184|195|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|204|155|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|227|156|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|197|150|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238|219|219|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35|90|231|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103|156|246|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161|183|243|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185|199|255|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|255|255|242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.500000,G=0.500000,B=0.500000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.127438,G=0.141263,B=0.564712,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.752942,G=0.479320,B=0.545725,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=0.830770,B=0.679543,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|226|204|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250|248|242|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188|188|188|188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49|81|187|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154|178|243|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228|235|255|255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.000000,G=0.000000,B=0.000000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.124772,G=0.088656,B=0.135633,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.089798,G=0.068563,B=0.117647,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255|226|182|255 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.522794,G=0.116481,B=0.265481,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.623960,G=0.686685,B=1.000000,A=1.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16|63|111|255 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|0|0|255 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.966020,G=0.501341,B=0.985294,A=0.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=1.000000,G=1.000000,B=1.000000,A=0.000000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R=0.242281,G=0.361307,B=0.571125,A=1.000000)</t>
+    <t xml:space="preserve">202|207|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181|253|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139|226|232|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|238|215|0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255|254|227|0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115|232|223|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231|207|165|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231|167|143|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184|198|255|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122|134|171|255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213|213|213|0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1653,7 +1565,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1678,8 +1590,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1878,7 +1798,7 @@
   <dimension ref="A1:BN1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BL14" activeCellId="0" sqref="BL14"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2677,813 +2597,731 @@
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>195714</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>194255</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6" t="n">
+        <v>178192</v>
+      </c>
+      <c r="AB6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="AD6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF6" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG6" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH6" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI6" s="6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AJ6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="6" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AS6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU6" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="AV6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="6" t="n">
+        <v>1986.55</v>
+      </c>
+      <c r="AX6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY6" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA6" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB6" s="6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>26.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>184494</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>95624</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X6" s="5" t="s">
+      <c r="BE6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="6" t="n">
+        <v>7212</v>
+      </c>
+      <c r="BG6" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL6" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>178196</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>-361.83</v>
-      </c>
-      <c r="AU6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AX6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA6" s="4" t="n">
-        <v>-159.79</v>
-      </c>
-      <c r="BB6" s="4" t="n">
-        <v>32.74</v>
-      </c>
-      <c r="BC6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="4" t="n">
-        <v>5256.1</v>
-      </c>
-      <c r="BG6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BH6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI6" s="4" t="n">
-        <v>-1.36</v>
-      </c>
-      <c r="BJ6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="BL6" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>108338</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>266277</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>14307</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>163437</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="T7" s="4" t="n">
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <v>178192</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG7" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH7" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI7" s="6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AJ7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="6" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AS7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="6" t="n">
+        <v>1986.55</v>
+      </c>
+      <c r="AX7" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY7" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA7" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB7" s="6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="U7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>95626</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="5" t="s">
+      <c r="BD7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="6" t="n">
+        <v>7212</v>
+      </c>
+      <c r="BG7" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>-361.83</v>
-      </c>
-      <c r="AU7" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AX7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA7" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB7" s="4" t="n">
-        <v>-20</v>
-      </c>
-      <c r="BC7" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="BG7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="4" t="n">
-        <v>2800</v>
-      </c>
-      <c r="BL7" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>108338</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>266261</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>184494</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5" t="s">
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="6" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>95624</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X8" s="5" t="s">
+      <c r="T8" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6" t="n">
+        <v>178192</v>
+      </c>
+      <c r="AB8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG8" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH8" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI8" s="6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AJ8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="6" t="n">
+        <v>1938.6</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="6" t="n">
+        <v>2417.32</v>
+      </c>
+      <c r="AX8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA8" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB8" s="6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="6" t="n">
+        <v>7212</v>
+      </c>
+      <c r="BG8" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>28450</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AS8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="4" t="n">
-        <v>9000</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AX8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA8" s="4" t="n">
-        <v>-135</v>
-      </c>
-      <c r="BB8" s="4" t="n">
-        <v>-50</v>
-      </c>
-      <c r="BC8" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="4" t="n">
-        <v>4368.6</v>
-      </c>
-      <c r="BG8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>59838</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>184494</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="T9" s="4" t="n">
+      <c r="B9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>266261</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="6" t="n">
+        <v>178192</v>
+      </c>
+      <c r="AB9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF9" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG9" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH9" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI9" s="6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AJ9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="6" t="n">
+        <v>1938.6</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="6" t="n">
+        <v>2417.32</v>
+      </c>
+      <c r="AX9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA9" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB9" s="6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BC9" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="U9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>95624</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X9" s="5" t="s">
+      <c r="BD9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="6" t="n">
+        <v>7212</v>
+      </c>
+      <c r="BG9" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL9" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>178196</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AJ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT9" s="4" t="n">
-        <v>-361.83</v>
-      </c>
-      <c r="AU9" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AX9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA9" s="4" t="n">
-        <v>78.58</v>
-      </c>
-      <c r="BB9" s="4" t="n">
-        <v>-75.54</v>
-      </c>
-      <c r="BC9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BD9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="4" t="n">
-        <v>1809.38</v>
-      </c>
-      <c r="BG9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BH9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI9" s="4" t="n">
-        <v>-1.24</v>
-      </c>
-      <c r="BJ9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK9" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="BL9" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>195714</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>184494</v>
-      </c>
-      <c r="R10" s="4" t="n">
+      <c r="B10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>14304</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="T10" s="4" t="n">
+      <c r="T10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="U10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>95624</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="4" t="n">
+      <c r="U10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="6" t="n">
         <v>28450</v>
       </c>
-      <c r="AB10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
+      <c r="AB10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF10" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="AG10" s="6" t="n">
@@ -3492,1232 +3330,1218 @@
       <c r="AH10" s="6" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT10" s="4" t="n">
-        <v>-361.83</v>
-      </c>
-      <c r="AU10" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AX10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="5" t="s">
+      <c r="AI10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR10" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AU10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="6" t="n">
+        <v>3013</v>
+      </c>
+      <c r="AX10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY10" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AZ10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BA10" s="4" t="n">
-        <v>-135</v>
-      </c>
-      <c r="BB10" s="4" t="n">
+      <c r="BA10" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB10" s="6" t="n">
         <v>-50</v>
       </c>
-      <c r="BC10" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD10" s="5" t="s">
+      <c r="BC10" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="6" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BG10" s="6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BH10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BE10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF10" s="4" t="n">
-        <v>4478.65</v>
-      </c>
-      <c r="BG10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK10" s="4" t="n">
-        <v>2800</v>
-      </c>
-      <c r="BL10" s="5" t="s">
+      <c r="BI10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL10" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>59821</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>14307</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>184494</v>
-      </c>
-      <c r="R11" s="4" t="n">
+      <c r="B11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>194255</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="T11" s="4" t="n">
+      <c r="S11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="U11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>233556</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>178196</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="4" t="n">
+      <c r="U11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="6" t="n">
+        <v>178192</v>
+      </c>
+      <c r="AB11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF11" s="4" t="n">
+      <c r="AF11" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AI11" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AJ11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS11" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AT11" s="4" t="n">
-        <v>-361.83</v>
-      </c>
-      <c r="AU11" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AV11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AX11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA11" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB11" s="4" t="n">
-        <v>-1.73</v>
-      </c>
-      <c r="BC11" s="4" t="n">
+      <c r="AG11" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH11" s="6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="6" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AS11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AX11" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="BD11" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF11" s="4" t="n">
-        <v>4368.6</v>
-      </c>
-      <c r="BG11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI11" s="4" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="BJ11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="4" t="n">
-        <v>239.12</v>
-      </c>
-      <c r="BL11" s="5" t="s">
-        <v>178</v>
+      <c r="AY11" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA11" s="6" t="n">
+        <v>-60</v>
+      </c>
+      <c r="BB11" s="6" t="n">
+        <v>-60</v>
+      </c>
+      <c r="BC11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="6" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BG11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL11" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
       <c r="AU12" s="5"/>
-      <c r="AY12" s="7"/>
+      <c r="AY12" s="9"/>
       <c r="AZ12" s="5"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-      <c r="BC12" s="7"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
       <c r="BD12" s="5"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
       <c r="BH12" s="5"/>
-      <c r="BI12" s="7"/>
-      <c r="BJ12" s="7"/>
-      <c r="BK12" s="7"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
       <c r="BN12" s="1"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
       <c r="AC13" s="5"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
       <c r="AU13" s="5"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
       <c r="AZ13" s="5"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="7"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
       <c r="BD13" s="5"/>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="7"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
       <c r="BH13" s="5"/>
-      <c r="BI13" s="7"/>
-      <c r="BJ13" s="7"/>
-      <c r="BK13" s="7"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
       <c r="BN13" s="1"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="7"/>
-      <c r="AT14" s="7"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
       <c r="AU14" s="5"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="7"/>
-      <c r="AX14" s="7"/>
-      <c r="AY14" s="7"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
       <c r="AZ14" s="5"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
-      <c r="BC14" s="7"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
       <c r="BD14" s="5"/>
-      <c r="BE14" s="7"/>
-      <c r="BF14" s="7"/>
-      <c r="BG14" s="7"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
       <c r="BH14" s="5"/>
-      <c r="BI14" s="7"/>
-      <c r="BJ14" s="7"/>
-      <c r="BK14" s="7"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
       <c r="BL14" s="5"/>
       <c r="BM14" s="5"/>
     </row>
     <row r="15" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="7"/>
-      <c r="AT15" s="7"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
       <c r="AU15" s="5"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="7"/>
-      <c r="AX15" s="7"/>
-      <c r="AY15" s="7"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
       <c r="AZ15" s="5"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="7"/>
-      <c r="BC15" s="7"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
       <c r="BD15" s="5"/>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="7"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
       <c r="BH15" s="5"/>
-      <c r="BI15" s="7"/>
-      <c r="BJ15" s="7"/>
-      <c r="BK15" s="7"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="9"/>
+      <c r="BK15" s="9"/>
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
     </row>
     <row r="16" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
       <c r="AU16" s="5"/>
-      <c r="AV16" s="7"/>
-      <c r="AW16" s="7"/>
-      <c r="AX16" s="7"/>
-      <c r="AY16" s="7"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
       <c r="AZ16" s="5"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="7"/>
-      <c r="BC16" s="7"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
       <c r="BD16" s="5"/>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="7"/>
-      <c r="BG16" s="7"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
       <c r="BH16" s="5"/>
-      <c r="BI16" s="7"/>
-      <c r="BJ16" s="7"/>
-      <c r="BK16" s="7"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="9"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="7"/>
-      <c r="AT17" s="7"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
       <c r="AU17" s="5"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="7"/>
-      <c r="AX17" s="7"/>
-      <c r="AY17" s="7"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
       <c r="AZ17" s="5"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="7"/>
-      <c r="BC17" s="7"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
       <c r="BD17" s="5"/>
-      <c r="BE17" s="7"/>
-      <c r="BF17" s="7"/>
-      <c r="BG17" s="7"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="9"/>
       <c r="BH17" s="5"/>
-      <c r="BI17" s="7"/>
-      <c r="BJ17" s="7"/>
-      <c r="BK17" s="7"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="9"/>
+      <c r="BK17" s="9"/>
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
     </row>
     <row r="18" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="7"/>
-      <c r="AT18" s="7"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
       <c r="AU18" s="5"/>
-      <c r="AV18" s="7"/>
-      <c r="AW18" s="7"/>
-      <c r="AX18" s="7"/>
-      <c r="AY18" s="7"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
       <c r="AZ18" s="5"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="7"/>
-      <c r="BC18" s="7"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
       <c r="BD18" s="5"/>
-      <c r="BE18" s="7"/>
-      <c r="BF18" s="7"/>
-      <c r="BG18" s="7"/>
+      <c r="BE18" s="9"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="9"/>
       <c r="BH18" s="5"/>
-      <c r="BI18" s="7"/>
-      <c r="BJ18" s="7"/>
-      <c r="BK18" s="7"/>
+      <c r="BI18" s="9"/>
+      <c r="BJ18" s="9"/>
+      <c r="BK18" s="9"/>
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
     </row>
     <row r="19" s="4" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="7"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
       <c r="AU19" s="5"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="7"/>
-      <c r="AX19" s="7"/>
-      <c r="AY19" s="7"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
       <c r="AZ19" s="5"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="7"/>
-      <c r="BC19" s="7"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
       <c r="BD19" s="5"/>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="7"/>
-      <c r="BG19" s="7"/>
+      <c r="BE19" s="9"/>
+      <c r="BF19" s="9"/>
+      <c r="BG19" s="9"/>
       <c r="BH19" s="5"/>
-      <c r="BI19" s="7"/>
-      <c r="BJ19" s="7"/>
-      <c r="BK19" s="7"/>
+      <c r="BI19" s="9"/>
+      <c r="BJ19" s="9"/>
+      <c r="BK19" s="9"/>
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
     </row>
     <row r="20" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="7"/>
-      <c r="AT20" s="7"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
       <c r="AU20" s="5"/>
-      <c r="AV20" s="7"/>
-      <c r="AW20" s="7"/>
-      <c r="AX20" s="7"/>
-      <c r="AY20" s="7"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
       <c r="AZ20" s="5"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="7"/>
-      <c r="BC20" s="7"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
       <c r="BD20" s="5"/>
-      <c r="BE20" s="7"/>
-      <c r="BF20" s="7"/>
-      <c r="BG20" s="7"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
       <c r="BH20" s="5"/>
-      <c r="BI20" s="7"/>
-      <c r="BJ20" s="7"/>
-      <c r="BK20" s="7"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
       <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
     </row>
     <row r="21" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
       <c r="AU21" s="5"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
-      <c r="AX21" s="7"/>
-      <c r="AY21" s="7"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
       <c r="AZ21" s="5"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
-      <c r="BC21" s="7"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
       <c r="BD21" s="5"/>
-      <c r="BE21" s="7"/>
-      <c r="BF21" s="7"/>
-      <c r="BG21" s="7"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="9"/>
       <c r="BH21" s="5"/>
-      <c r="BI21" s="7"/>
-      <c r="BJ21" s="7"/>
-      <c r="BK21" s="7"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="9"/>
       <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
     </row>
     <row r="22" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="7"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
       <c r="AU22" s="5"/>
-      <c r="AV22" s="7"/>
-      <c r="AW22" s="7"/>
-      <c r="AX22" s="7"/>
-      <c r="AY22" s="7"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
       <c r="AZ22" s="5"/>
-      <c r="BA22" s="7"/>
-      <c r="BB22" s="7"/>
-      <c r="BC22" s="7"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
       <c r="BD22" s="5"/>
-      <c r="BE22" s="7"/>
-      <c r="BF22" s="7"/>
-      <c r="BG22" s="7"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
       <c r="BH22" s="5"/>
-      <c r="BI22" s="7"/>
-      <c r="BJ22" s="7"/>
-      <c r="BK22" s="7"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
       <c r="BL22" s="5"/>
       <c r="BM22" s="5"/>
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
-      <c r="AT23" s="7"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
       <c r="AU23" s="5"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
-      <c r="AX23" s="7"/>
-      <c r="AY23" s="7"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
       <c r="AZ23" s="5"/>
-      <c r="BA23" s="7"/>
-      <c r="BB23" s="7"/>
-      <c r="BC23" s="7"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
       <c r="BD23" s="5"/>
-      <c r="BE23" s="7"/>
-      <c r="BF23" s="7"/>
-      <c r="BG23" s="7"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
       <c r="BH23" s="5"/>
-      <c r="BI23" s="7"/>
-      <c r="BJ23" s="7"/>
-      <c r="BK23" s="7"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9"/>
       <c r="BL23" s="5"/>
       <c r="BM23" s="5"/>
     </row>
     <row r="24" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
-      <c r="AT24" s="7"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
       <c r="AU24" s="5"/>
-      <c r="AV24" s="7"/>
-      <c r="AW24" s="7"/>
-      <c r="AX24" s="7"/>
-      <c r="AY24" s="7"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
       <c r="AZ24" s="5"/>
-      <c r="BA24" s="7"/>
-      <c r="BB24" s="7"/>
-      <c r="BC24" s="7"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
       <c r="BD24" s="5"/>
-      <c r="BE24" s="7"/>
-      <c r="BF24" s="7"/>
-      <c r="BG24" s="7"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="9"/>
       <c r="BH24" s="5"/>
-      <c r="BI24" s="7"/>
-      <c r="BJ24" s="7"/>
-      <c r="BK24" s="7"/>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="9"/>
+      <c r="BK24" s="9"/>
       <c r="BL24" s="5"/>
       <c r="BM24" s="5"/>
     </row>
     <row r="25" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
       <c r="AU25" s="5"/>
-      <c r="AV25" s="7"/>
-      <c r="AW25" s="7"/>
-      <c r="AX25" s="7"/>
-      <c r="AY25" s="7"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
       <c r="AZ25" s="5"/>
-      <c r="BA25" s="7"/>
-      <c r="BB25" s="7"/>
-      <c r="BC25" s="7"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
       <c r="BD25" s="5"/>
-      <c r="BE25" s="7"/>
-      <c r="BF25" s="7"/>
-      <c r="BG25" s="7"/>
+      <c r="BE25" s="9"/>
+      <c r="BF25" s="9"/>
+      <c r="BG25" s="9"/>
       <c r="BH25" s="5"/>
-      <c r="BI25" s="7"/>
-      <c r="BJ25" s="7"/>
-      <c r="BK25" s="7"/>
+      <c r="BI25" s="9"/>
+      <c r="BJ25" s="9"/>
+      <c r="BK25" s="9"/>
       <c r="BL25" s="5"/>
     </row>
     <row r="26" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="7"/>
-      <c r="AS26" s="7"/>
-      <c r="AT26" s="7"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
       <c r="AU26" s="5"/>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="7"/>
-      <c r="AX26" s="7"/>
-      <c r="AY26" s="7"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
       <c r="AZ26" s="5"/>
-      <c r="BA26" s="7"/>
-      <c r="BB26" s="7"/>
-      <c r="BC26" s="7"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
       <c r="BD26" s="5"/>
-      <c r="BE26" s="7"/>
-      <c r="BF26" s="7"/>
-      <c r="BG26" s="7"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
       <c r="BH26" s="5"/>
-      <c r="BI26" s="7"/>
-      <c r="BJ26" s="7"/>
-      <c r="BK26" s="7"/>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="9"/>
+      <c r="BK26" s="9"/>
       <c r="BL26" s="5"/>
     </row>
     <row r="27" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/nevergiveup/Excel/SceneEnvironment_场景环境表.xlsx
+++ b/nevergiveup/Excel/SceneEnvironment_场景环境表.xlsx
@@ -1590,6 +1590,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1599,10 +1603,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:BN1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2609,32 +2609,32 @@
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>139</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6" t="n">
         <v>4.58</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T6" s="6" t="n">
@@ -2643,10 +2643,10 @@
       <c r="U6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
       <c r="Z6" s="6" t="n">
         <v>1</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="AB6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AC6" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AD6" s="6" t="n">
@@ -2680,13 +2680,13 @@
       <c r="AJ6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK6" s="8"/>
+      <c r="AK6" s="6"/>
       <c r="AL6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
       <c r="AP6" s="6" t="n">
         <v>1</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="AT6" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="AU6" s="7" t="s">
+      <c r="AU6" s="5" t="s">
         <v>141</v>
       </c>
       <c r="AV6" s="6" t="n">
@@ -2717,7 +2717,7 @@
       <c r="AY6" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ6" s="7" t="s">
+      <c r="AZ6" s="5" t="s">
         <v>137</v>
       </c>
       <c r="BA6" s="6" t="n">
@@ -2729,7 +2729,7 @@
       <c r="BC6" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="BD6" s="7" t="s">
+      <c r="BD6" s="5" t="s">
         <v>142</v>
       </c>
       <c r="BE6" s="6" t="n">
@@ -2741,7 +2741,7 @@
       <c r="BG6" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH6" s="7" t="s">
+      <c r="BH6" s="5" t="s">
         <v>143</v>
       </c>
       <c r="BI6" s="6" t="n">
@@ -2753,7 +2753,7 @@
       <c r="BK6" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="BL6" s="7" t="s">
+      <c r="BL6" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2773,32 +2773,32 @@
       <c r="E7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="6" t="n">
         <v>4.58</v>
       </c>
       <c r="L7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T7" s="6" t="n">
@@ -2807,10 +2807,10 @@
       <c r="U7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="6" t="n">
         <v>1</v>
       </c>
@@ -2820,7 +2820,7 @@
       <c r="AB7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AC7" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AD7" s="6" t="n">
@@ -2844,13 +2844,13 @@
       <c r="AJ7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK7" s="8"/>
+      <c r="AK7" s="6"/>
       <c r="AL7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
       <c r="AP7" s="6" t="n">
         <v>1</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="AT7" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="AU7" s="7" t="s">
+      <c r="AU7" s="5" t="s">
         <v>144</v>
       </c>
       <c r="AV7" s="6" t="n">
@@ -2881,7 +2881,7 @@
       <c r="AY7" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ7" s="7" t="s">
+      <c r="AZ7" s="5" t="s">
         <v>137</v>
       </c>
       <c r="BA7" s="6" t="n">
@@ -2893,7 +2893,7 @@
       <c r="BC7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="BD7" s="7" t="s">
+      <c r="BD7" s="5" t="s">
         <v>142</v>
       </c>
       <c r="BE7" s="6" t="n">
@@ -2905,7 +2905,7 @@
       <c r="BG7" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH7" s="7" t="s">
+      <c r="BH7" s="5" t="s">
         <v>143</v>
       </c>
       <c r="BI7" s="6" t="n">
@@ -2917,7 +2917,7 @@
       <c r="BK7" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="BL7" s="7" t="s">
+      <c r="BL7" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2925,163 +2925,163 @@
       <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="n">
+      <c r="B8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="n">
         <v>266261</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>1.05</v>
       </c>
-      <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6" t="n">
+      <c r="G8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7" t="n">
         <v>4.58</v>
       </c>
-      <c r="L8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="6" t="n">
+      <c r="L8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="T8" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="U8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="6" t="n">
+      <c r="U8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="7" t="n">
         <v>178192</v>
       </c>
-      <c r="AB8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="7" t="s">
+      <c r="AB8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AD8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="6" t="n">
+      <c r="AD8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF8" s="6" t="n">
+      <c r="AF8" s="7" t="n">
         <v>-1</v>
       </c>
-      <c r="AG8" s="6" t="n">
+      <c r="AG8" s="7" t="n">
         <v>2.2</v>
       </c>
-      <c r="AH8" s="6" t="n">
+      <c r="AH8" s="7" t="n">
         <v>1.1</v>
       </c>
-      <c r="AI8" s="6" t="n">
+      <c r="AI8" s="7" t="n">
         <v>1.07</v>
       </c>
-      <c r="AJ8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="6" t="n">
+      <c r="AJ8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="6" t="n">
+      <c r="AS8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="7" t="n">
         <v>1938.6</v>
       </c>
-      <c r="AU8" s="7" t="s">
+      <c r="AU8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AV8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="6" t="n">
+      <c r="AV8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="7" t="n">
         <v>2417.32</v>
       </c>
-      <c r="AX8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="7" t="s">
+      <c r="AX8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="BA8" s="6" t="n">
+      <c r="BA8" s="7" t="n">
         <v>52</v>
       </c>
-      <c r="BB8" s="6" t="n">
+      <c r="BB8" s="7" t="n">
         <v>-50</v>
       </c>
-      <c r="BC8" s="6" t="n">
+      <c r="BC8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="BD8" s="7" t="s">
+      <c r="BD8" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="BE8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF8" s="6" t="n">
+      <c r="BE8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="7" t="n">
         <v>7212</v>
       </c>
-      <c r="BG8" s="6" t="n">
+      <c r="BG8" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH8" s="7" t="s">
+      <c r="BH8" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="BI8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="6" t="n">
+      <c r="BI8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="7" t="n">
         <v>5000</v>
       </c>
-      <c r="BL8" s="7" t="s">
+      <c r="BL8" s="8" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3101,32 +3101,32 @@
       <c r="E9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="6" t="n">
         <v>4.58</v>
       </c>
       <c r="L9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T9" s="6" t="n">
@@ -3135,10 +3135,10 @@
       <c r="U9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
       <c r="Z9" s="6" t="n">
         <v>1</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="AB9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC9" s="7" t="s">
+      <c r="AC9" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AD9" s="6" t="n">
@@ -3172,13 +3172,13 @@
       <c r="AJ9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="8"/>
+      <c r="AK9" s="6"/>
       <c r="AL9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
       <c r="AP9" s="6" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="AT9" s="6" t="n">
         <v>1938.6</v>
       </c>
-      <c r="AU9" s="7" t="s">
+      <c r="AU9" s="5" t="s">
         <v>146</v>
       </c>
       <c r="AV9" s="6" t="n">
@@ -3209,7 +3209,7 @@
       <c r="AY9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="7" t="s">
+      <c r="AZ9" s="5" t="s">
         <v>137</v>
       </c>
       <c r="BA9" s="6" t="n">
@@ -3221,7 +3221,7 @@
       <c r="BC9" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="BD9" s="7" t="s">
+      <c r="BD9" s="5" t="s">
         <v>142</v>
       </c>
       <c r="BE9" s="6" t="n">
@@ -3233,7 +3233,7 @@
       <c r="BG9" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH9" s="7" t="s">
+      <c r="BH9" s="5" t="s">
         <v>143</v>
       </c>
       <c r="BI9" s="6" t="n">
@@ -3245,7 +3245,7 @@
       <c r="BK9" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="BL9" s="7" t="s">
+      <c r="BL9" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3265,32 +3265,32 @@
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="6" t="n">
         <v>4.58</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T10" s="6" t="n">
@@ -3299,10 +3299,10 @@
       <c r="U10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
       <c r="Z10" s="6" t="n">
         <v>1</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="AB10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC10" s="7" t="s">
+      <c r="AC10" s="5" t="s">
         <v>147</v>
       </c>
       <c r="AD10" s="6" t="n">
@@ -3336,13 +3336,13 @@
       <c r="AJ10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK10" s="8"/>
+      <c r="AK10" s="6"/>
       <c r="AL10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
       <c r="AP10" s="6" t="n">
         <v>1</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="AT10" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="AU10" s="7" t="s">
+      <c r="AU10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="AV10" s="6" t="n">
@@ -3373,7 +3373,7 @@
       <c r="AY10" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ10" s="7" t="s">
+      <c r="AZ10" s="5" t="s">
         <v>137</v>
       </c>
       <c r="BA10" s="6" t="n">
@@ -3385,7 +3385,7 @@
       <c r="BC10" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="BD10" s="7" t="s">
+      <c r="BD10" s="5" t="s">
         <v>149</v>
       </c>
       <c r="BE10" s="6" t="n">
@@ -3397,7 +3397,7 @@
       <c r="BG10" s="6" t="n">
         <v>0.6</v>
       </c>
-      <c r="BH10" s="7" t="s">
+      <c r="BH10" s="5" t="s">
         <v>138</v>
       </c>
       <c r="BI10" s="6" t="n">
@@ -3409,7 +3409,7 @@
       <c r="BK10" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="BL10" s="7" t="s">
+      <c r="BL10" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3429,32 +3429,32 @@
       <c r="E11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="6" t="n">
         <v>4.58</v>
       </c>
       <c r="L11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="6"/>
       <c r="R11" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="5" t="s">
         <v>134</v>
       </c>
       <c r="T11" s="6" t="n">
@@ -3463,10 +3463,10 @@
       <c r="U11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
       <c r="Z11" s="6" t="n">
         <v>1</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="AB11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AC11" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AD11" s="6" t="n">
@@ -3500,13 +3500,13 @@
       <c r="AJ11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK11" s="8"/>
+      <c r="AK11" s="6"/>
       <c r="AL11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
       <c r="AP11" s="6" t="n">
         <v>1</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="AT11" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="AU11" s="7" t="s">
+      <c r="AU11" s="5" t="s">
         <v>141</v>
       </c>
       <c r="AV11" s="6" t="n">
@@ -3537,7 +3537,7 @@
       <c r="AY11" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ11" s="7" t="s">
+      <c r="AZ11" s="5" t="s">
         <v>137</v>
       </c>
       <c r="BA11" s="6" t="n">
@@ -3549,7 +3549,7 @@
       <c r="BC11" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="BD11" s="7" t="s">
+      <c r="BD11" s="5" t="s">
         <v>138</v>
       </c>
       <c r="BE11" s="6" t="n">
@@ -3561,7 +3561,7 @@
       <c r="BG11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="BH11" s="7" t="s">
+      <c r="BH11" s="5" t="s">
         <v>138</v>
       </c>
       <c r="BI11" s="6" t="n">
@@ -3573,975 +3573,975 @@
       <c r="BK11" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="BL11" s="7" t="s">
+      <c r="BL11" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
       <c r="AU12" s="5"/>
-      <c r="AY12" s="9"/>
+      <c r="AY12" s="6"/>
       <c r="AZ12" s="5"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
       <c r="BD12" s="5"/>
-      <c r="BE12" s="9"/>
-      <c r="BF12" s="9"/>
-      <c r="BG12" s="9"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
       <c r="BH12" s="5"/>
-      <c r="BI12" s="9"/>
-      <c r="BJ12" s="9"/>
-      <c r="BK12" s="9"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
       <c r="BN12" s="1"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
       <c r="AC13" s="5"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
       <c r="AU13" s="5"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
       <c r="AZ13" s="5"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
       <c r="BD13" s="5"/>
-      <c r="BE13" s="9"/>
-      <c r="BF13" s="9"/>
-      <c r="BG13" s="9"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
       <c r="BH13" s="5"/>
-      <c r="BI13" s="9"/>
-      <c r="BJ13" s="9"/>
-      <c r="BK13" s="9"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
       <c r="BN13" s="1"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
       <c r="AU14" s="5"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
       <c r="AZ14" s="5"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
       <c r="BD14" s="5"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
-      <c r="BG14" s="9"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
       <c r="BH14" s="5"/>
-      <c r="BI14" s="9"/>
-      <c r="BJ14" s="9"/>
-      <c r="BK14" s="9"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
       <c r="BL14" s="5"/>
       <c r="BM14" s="5"/>
     </row>
     <row r="15" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
       <c r="AU15" s="5"/>
-      <c r="AV15" s="9"/>
-      <c r="AW15" s="9"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
       <c r="AZ15" s="5"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
       <c r="BD15" s="5"/>
-      <c r="BE15" s="9"/>
-      <c r="BF15" s="9"/>
-      <c r="BG15" s="9"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
       <c r="BH15" s="5"/>
-      <c r="BI15" s="9"/>
-      <c r="BJ15" s="9"/>
-      <c r="BK15" s="9"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
     </row>
     <row r="16" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="9"/>
-      <c r="AT16" s="9"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
       <c r="AU16" s="5"/>
-      <c r="AV16" s="9"/>
-      <c r="AW16" s="9"/>
-      <c r="AX16" s="9"/>
-      <c r="AY16" s="9"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
       <c r="AZ16" s="5"/>
-      <c r="BA16" s="9"/>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="9"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
       <c r="BD16" s="5"/>
-      <c r="BE16" s="9"/>
-      <c r="BF16" s="9"/>
-      <c r="BG16" s="9"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="6"/>
       <c r="BH16" s="5"/>
-      <c r="BI16" s="9"/>
-      <c r="BJ16" s="9"/>
-      <c r="BK16" s="9"/>
+      <c r="BI16" s="6"/>
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="6"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
       <c r="AU17" s="5"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
       <c r="AZ17" s="5"/>
-      <c r="BA17" s="9"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
       <c r="BD17" s="5"/>
-      <c r="BE17" s="9"/>
-      <c r="BF17" s="9"/>
-      <c r="BG17" s="9"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
       <c r="BH17" s="5"/>
-      <c r="BI17" s="9"/>
-      <c r="BJ17" s="9"/>
-      <c r="BK17" s="9"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
     </row>
     <row r="18" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="9"/>
-      <c r="AT18" s="9"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
       <c r="AU18" s="5"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
       <c r="AZ18" s="5"/>
-      <c r="BA18" s="9"/>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
       <c r="BD18" s="5"/>
-      <c r="BE18" s="9"/>
-      <c r="BF18" s="9"/>
-      <c r="BG18" s="9"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
       <c r="BH18" s="5"/>
-      <c r="BI18" s="9"/>
-      <c r="BJ18" s="9"/>
-      <c r="BK18" s="9"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
     </row>
     <row r="19" s="4" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="9"/>
-      <c r="AT19" s="9"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
       <c r="AU19" s="5"/>
-      <c r="AV19" s="9"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
       <c r="AZ19" s="5"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
       <c r="BD19" s="5"/>
-      <c r="BE19" s="9"/>
-      <c r="BF19" s="9"/>
-      <c r="BG19" s="9"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
       <c r="BH19" s="5"/>
-      <c r="BI19" s="9"/>
-      <c r="BJ19" s="9"/>
-      <c r="BK19" s="9"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
     </row>
     <row r="20" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
       <c r="AU20" s="5"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
       <c r="AZ20" s="5"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
       <c r="BD20" s="5"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="9"/>
-      <c r="BG20" s="9"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
       <c r="BH20" s="5"/>
-      <c r="BI20" s="9"/>
-      <c r="BJ20" s="9"/>
-      <c r="BK20" s="9"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
       <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
     </row>
     <row r="21" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
       <c r="AU21" s="5"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6"/>
       <c r="AZ21" s="5"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
       <c r="BD21" s="5"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
-      <c r="BG21" s="9"/>
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6"/>
       <c r="BH21" s="5"/>
-      <c r="BI21" s="9"/>
-      <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
+      <c r="BI21" s="6"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="6"/>
       <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
     </row>
     <row r="22" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
       <c r="AU22" s="5"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
       <c r="AZ22" s="5"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
       <c r="BD22" s="5"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
       <c r="BH22" s="5"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
       <c r="BL22" s="5"/>
       <c r="BM22" s="5"/>
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
       <c r="AU23" s="5"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
       <c r="AZ23" s="5"/>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
       <c r="BD23" s="5"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
-      <c r="BG23" s="9"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
       <c r="BH23" s="5"/>
-      <c r="BI23" s="9"/>
-      <c r="BJ23" s="9"/>
-      <c r="BK23" s="9"/>
+      <c r="BI23" s="6"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
       <c r="BL23" s="5"/>
       <c r="BM23" s="5"/>
     </row>
     <row r="24" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
       <c r="AU24" s="5"/>
-      <c r="AV24" s="9"/>
-      <c r="AW24" s="9"/>
-      <c r="AX24" s="9"/>
-      <c r="AY24" s="9"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="6"/>
       <c r="AZ24" s="5"/>
-      <c r="BA24" s="9"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
+      <c r="BA24" s="6"/>
+      <c r="BB24" s="6"/>
+      <c r="BC24" s="6"/>
       <c r="BD24" s="5"/>
-      <c r="BE24" s="9"/>
-      <c r="BF24" s="9"/>
-      <c r="BG24" s="9"/>
+      <c r="BE24" s="6"/>
+      <c r="BF24" s="6"/>
+      <c r="BG24" s="6"/>
       <c r="BH24" s="5"/>
-      <c r="BI24" s="9"/>
-      <c r="BJ24" s="9"/>
-      <c r="BK24" s="9"/>
+      <c r="BI24" s="6"/>
+      <c r="BJ24" s="6"/>
+      <c r="BK24" s="6"/>
       <c r="BL24" s="5"/>
       <c r="BM24" s="5"/>
     </row>
     <row r="25" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
-      <c r="AQ25" s="9"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="9"/>
-      <c r="AT25" s="9"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="6"/>
       <c r="AU25" s="5"/>
-      <c r="AV25" s="9"/>
-      <c r="AW25" s="9"/>
-      <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6"/>
+      <c r="AY25" s="6"/>
       <c r="AZ25" s="5"/>
-      <c r="BA25" s="9"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
+      <c r="BA25" s="6"/>
+      <c r="BB25" s="6"/>
+      <c r="BC25" s="6"/>
       <c r="BD25" s="5"/>
-      <c r="BE25" s="9"/>
-      <c r="BF25" s="9"/>
-      <c r="BG25" s="9"/>
+      <c r="BE25" s="6"/>
+      <c r="BF25" s="6"/>
+      <c r="BG25" s="6"/>
       <c r="BH25" s="5"/>
-      <c r="BI25" s="9"/>
-      <c r="BJ25" s="9"/>
-      <c r="BK25" s="9"/>
+      <c r="BI25" s="6"/>
+      <c r="BJ25" s="6"/>
+      <c r="BK25" s="6"/>
       <c r="BL25" s="5"/>
     </row>
     <row r="26" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
       <c r="AU26" s="5"/>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="9"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6"/>
+      <c r="AY26" s="6"/>
       <c r="AZ26" s="5"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
+      <c r="BA26" s="6"/>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="6"/>
       <c r="BD26" s="5"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
-      <c r="BG26" s="9"/>
+      <c r="BE26" s="6"/>
+      <c r="BF26" s="6"/>
+      <c r="BG26" s="6"/>
       <c r="BH26" s="5"/>
-      <c r="BI26" s="9"/>
-      <c r="BJ26" s="9"/>
-      <c r="BK26" s="9"/>
+      <c r="BI26" s="6"/>
+      <c r="BJ26" s="6"/>
+      <c r="BK26" s="6"/>
       <c r="BL26" s="5"/>
     </row>
     <row r="27" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
